--- a/formatexcel/absensi-eko.xlsx
+++ b/formatexcel/absensi-eko.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wahyu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/tigakawanlama/formatexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A24"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,7 +793,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="F20" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">

--- a/formatexcel/absensi-eko.xlsx
+++ b/formatexcel/absensi-eko.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
